--- a/data/India/India.xlsx
+++ b/data/India/India.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIT\5-Fall 2021-22\CSE4001\EPJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIT\5-Fall 2021-22\CSE4001\EPJ\data\India\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2627166-D4D0-4705-AA06-F095B370BC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61433532-D523-4A9E-B2A7-AF61A638DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60B0BE92-15E5-4016-B4CA-4E53BBFE4388}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3044787-1335-4332-830D-46F2460FD907}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,31 +32,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+  <si>
+    <t>Bengaluru</t>
+  </si>
   <si>
     <t>Chennai</t>
   </si>
   <si>
-    <t>Aurangabad</t>
-  </si>
-  <si>
-    <t>Vizag</t>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Mahabaleswar</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Raipur</t>
+  </si>
+  <si>
+    <t>Varanasi</t>
   </si>
   <si>
     <t>Delhi</t>
   </si>
   <si>
-    <t>VelloreFort</t>
-  </si>
-  <si>
-    <t>TirupatiTemple</t>
+    <t>Kanpur</t>
+  </si>
+  <si>
+    <t>Udaipur</t>
+  </si>
+  <si>
+    <t>Yawal</t>
+  </si>
+  <si>
+    <t>Ujjain</t>
+  </si>
+  <si>
+    <t>StatueOfUnity</t>
+  </si>
+  <si>
+    <t>DumasBeach</t>
+  </si>
+  <si>
+    <t>ShirdiTemple</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,7 +101,10 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,27 +115,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -108,11 +129,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,182 +448,1022 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B7235B-172D-4D8A-B56F-B1CF2046A472}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FF0FC1-2CD3-404E-8A69-938A2669403E}">
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection sqref="A1:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>242</v>
+      </c>
+      <c r="D2" s="1">
+        <v>293</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>263</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>242</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>315</v>
+      </c>
+      <c r="E3" s="1">
+        <v>392</v>
+      </c>
+      <c r="F3" s="1">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1">
+        <v>254</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>310</v>
+      </c>
+      <c r="O3" s="1">
+        <v>640</v>
+      </c>
+      <c r="P3" s="1">
+        <v>663</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>293</v>
+      </c>
+      <c r="C4" s="1">
+        <v>315</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>191</v>
+      </c>
+      <c r="F4" s="1">
+        <v>512</v>
+      </c>
+      <c r="G4" s="1">
+        <v>356</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>392</v>
+      </c>
+      <c r="D5" s="1">
+        <v>191</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>352</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>412</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1032</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1224</v>
+      </c>
+      <c r="L5" s="1">
+        <v>999</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1">
+        <v>512</v>
+      </c>
+      <c r="E6" s="1">
+        <v>352</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>326</v>
+      </c>
+      <c r="H6" s="1">
+        <v>332</v>
+      </c>
+      <c r="I6" s="1">
+        <v>669</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>899</v>
+      </c>
+      <c r="L6" s="1">
+        <v>790</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>254</v>
+      </c>
+      <c r="D7" s="1">
+        <v>356</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>326</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>628</v>
+      </c>
+      <c r="I7" s="1">
+        <v>998</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1127</v>
+      </c>
+      <c r="L7" s="1">
+        <v>700</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>530</v>
+      </c>
+      <c r="O7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>661</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>412</v>
+      </c>
+      <c r="F8" s="1">
+        <v>332</v>
+      </c>
+      <c r="G8" s="1">
+        <v>628</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>829</v>
+      </c>
+      <c r="J8" s="1">
+        <v>664</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1032</v>
+      </c>
+      <c r="F9" s="1">
+        <v>669</v>
+      </c>
+      <c r="G9" s="1">
+        <v>998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>829</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>495</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>664</v>
+      </c>
+      <c r="I10" s="1">
+        <v>495</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1224</v>
+      </c>
+      <c r="F11" s="1">
+        <v>899</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1127</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>683</v>
+      </c>
+      <c r="N11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>790</v>
+      </c>
+      <c r="G12" s="1">
+        <v>700</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>833</v>
+      </c>
+      <c r="N12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1344</v>
+      </c>
+      <c r="P12" s="1">
+        <v>783</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1174</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>683</v>
+      </c>
+      <c r="L13" s="1">
+        <v>833</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>263</v>
+      </c>
+      <c r="C14" s="1">
+        <v>310</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>530</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>395</v>
+      </c>
+      <c r="P14" s="1">
+        <v>596</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>640</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1344</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>395</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>675</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>663</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>661</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>783</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>596</v>
+      </c>
+      <c r="O16" s="1">
+        <v>675</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>137</v>
-      </c>
-      <c r="D2" s="2">
-        <v>155</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>137</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>125</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1145</v>
-      </c>
-      <c r="F3" s="2">
-        <v>861</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>155</v>
-      </c>
-      <c r="C4" s="2">
-        <v>125</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1097</v>
-      </c>
-      <c r="F4" s="2">
-        <v>778</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1145</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1097</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>861</v>
-      </c>
-      <c r="D6" s="2">
-        <v>778</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1275</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1785</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="B17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1174</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1087</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1370</v>
+      </c>
+      <c r="M18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>562</v>
+      </c>
+      <c r="P18" s="1">
+        <v>578</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>347</v>
+      </c>
+      <c r="R18" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>